--- a/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="279">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>45x31x10.5</t>
+  </si>
+  <si>
+    <t>56x36x32</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="C5" s="165">
         <f>'TẤN DŨNG'!$J$188</f>
-        <v>115049140</v>
+        <v>92082640</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
@@ -2555,7 +2558,7 @@
       <c r="B15" s="168"/>
       <c r="C15" s="167">
         <f>SUM(C4:C14)</f>
-        <v>357813173</v>
+        <v>334846673</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1"/>
@@ -4120,10 +4123,10 @@
   </sheetPr>
   <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+      <selection pane="bottomLeft" activeCell="H181" sqref="H181:H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9852,91 +9855,125 @@
       </c>
       <c r="K178" s="28"/>
     </row>
-    <row r="179" spans="1:11" ht="21" customHeight="1">
-      <c r="A179" s="15"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="102">
-        <f t="shared" ref="G179:G186" si="28">F179*10%</f>
-        <v>0</v>
-      </c>
-      <c r="H179" s="11">
-        <f t="shared" ref="H179:H186" si="29">IF(B179&lt;&gt;"",(E179*(G179+F179)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I179" s="28"/>
+    <row r="179" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="121">
+        <v>42320</v>
+      </c>
+      <c r="B179" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="122"/>
+      <c r="D179" s="122"/>
+      <c r="E179" s="125"/>
+      <c r="F179" s="126"/>
+      <c r="G179" s="127">
+        <f>F179*10%</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="32">
+        <f>IF(B179&lt;&gt;"",(E179*(G179+F179)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I179" s="126">
+        <v>40000000</v>
+      </c>
       <c r="J179" s="28">
-        <f t="shared" ref="J179:J186" si="30">IF(B179&lt;&gt;"",J178+H179-I179,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K179" s="28"/>
+        <f t="shared" ref="J179" si="28">IF(B179&lt;&gt;"",J178+H179-I179,0)</f>
+        <v>75049140</v>
+      </c>
+      <c r="K179" s="126"/>
     </row>
     <row r="180" spans="1:11" ht="21" customHeight="1">
-      <c r="A180" s="15"/>
-      <c r="B180" s="30"/>
+      <c r="A180" s="15">
+        <v>42327</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="28"/>
+      <c r="D180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="29">
+        <v>255</v>
+      </c>
+      <c r="F180" s="28">
+        <v>12000</v>
+      </c>
       <c r="G180" s="102">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" ref="G180:G186" si="29">F180*10%</f>
+        <v>1200</v>
       </c>
       <c r="H180" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" ref="H180:H186" si="30">IF(B180&lt;&gt;"",(E180*(G180+F180)),0)</f>
+        <v>3366000</v>
       </c>
       <c r="I180" s="28"/>
       <c r="J180" s="28">
+        <f t="shared" ref="J180:J186" si="31">IF(B180&lt;&gt;"",J179+H180-I180,0)</f>
+        <v>78415140</v>
+      </c>
+      <c r="K180" s="28"/>
+    </row>
+    <row r="181" spans="1:11" ht="21" customHeight="1">
+      <c r="A181" s="15">
+        <v>42332</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E181" s="29">
+        <v>450</v>
+      </c>
+      <c r="F181" s="28">
+        <v>21700</v>
+      </c>
+      <c r="G181" s="102">
+        <f t="shared" si="29"/>
+        <v>2170</v>
+      </c>
+      <c r="H181" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K180" s="28"/>
-    </row>
-    <row r="181" spans="1:11" ht="21" customHeight="1">
-      <c r="A181" s="15"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="102">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H181" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10741500</v>
       </c>
       <c r="I181" s="28"/>
       <c r="J181" s="28">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>89156640</v>
       </c>
       <c r="K181" s="28"/>
     </row>
     <row r="182" spans="1:11" ht="21" customHeight="1">
       <c r="A182" s="15"/>
-      <c r="B182" s="30"/>
+      <c r="B182" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="28"/>
+      <c r="D182" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="29">
+        <v>133</v>
+      </c>
+      <c r="F182" s="28">
+        <v>20000</v>
+      </c>
       <c r="G182" s="102">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2000</v>
       </c>
       <c r="H182" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>2926000</v>
       </c>
       <c r="I182" s="28"/>
       <c r="J182" s="28">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>92082640</v>
       </c>
       <c r="K182" s="28"/>
     </row>
@@ -9948,16 +9985,16 @@
       <c r="E183" s="29"/>
       <c r="F183" s="28"/>
       <c r="G183" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H183" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I183" s="28"/>
       <c r="J183" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K183" s="28"/>
@@ -9970,16 +10007,16 @@
       <c r="E184" s="29"/>
       <c r="F184" s="28"/>
       <c r="G184" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H184" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I184" s="28"/>
       <c r="J184" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K184" s="28"/>
@@ -9992,16 +10029,16 @@
       <c r="E185" s="29"/>
       <c r="F185" s="28"/>
       <c r="G185" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H185" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I185" s="28"/>
       <c r="J185" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K185" s="28"/>
@@ -10014,16 +10051,16 @@
       <c r="E186" s="29"/>
       <c r="F186" s="28"/>
       <c r="G186" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H186" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I186" s="28"/>
       <c r="J186" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K186" s="28"/>
@@ -10062,15 +10099,15 @@
       <c r="G188" s="17"/>
       <c r="H188" s="53">
         <f>SUM(H13:H187)</f>
-        <v>1447850250</v>
+        <v>1464883750</v>
       </c>
       <c r="I188" s="53">
         <f>K10+SUM(I13:I187)</f>
-        <v>1421000000</v>
+        <v>1461000000</v>
       </c>
       <c r="J188" s="17">
         <f>J12+H188-I188</f>
-        <v>115049140</v>
+        <v>92082640</v>
       </c>
       <c r="K188" s="17"/>
     </row>
@@ -10089,7 +10126,7 @@
       <c r="D190" s="4"/>
       <c r="E190" s="169">
         <f>J188</f>
-        <v>115049140</v>
+        <v>92082640</v>
       </c>
       <c r="F190" s="169"/>
       <c r="G190" s="101"/>
@@ -10108,7 +10145,7 @@
       </c>
       <c r="C191" s="56" t="str">
         <f>[1]!VND(E190, TRUE)</f>
-        <v>Một trăm mười lăm triệu, không trăm bốn mươi chín ngàn, một trăm bốn mươi đồng</v>
+        <v>Chín mươi hai triệu, không trăm tám mươi hai ngàn, sáu trăm bốn mươi đồng</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -10168,16 +10205,16 @@
   </sheetData>
   <autoFilter ref="A11:K188"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A188:F188"/>
     <mergeCell ref="E190:F190"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A188:F188"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.4" right="0.15" top="0.51" bottom="0.52" header="0.5" footer="0.5"/>
@@ -10194,7 +10231,7 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
@@ -13895,10 +13932,10 @@
   </sheetPr>
   <dimension ref="A1:J269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238:XFD259"/>
+      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ANH KIM'!$A$11:$J$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NGHỊ HÒA'!$A$11:$L$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NGHỊ HÒA'!$A$11:$L$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THÀNH PHÚ'!$A$11:$K$11</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="284">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -867,6 +867,21 @@
   </si>
   <si>
     <t>56x36x32</t>
+  </si>
+  <si>
+    <t>Chỉ 40g</t>
+  </si>
+  <si>
+    <t>Chỉ 90g</t>
+  </si>
+  <si>
+    <t>Mai lạt</t>
+  </si>
+  <si>
+    <t>Mai nướng</t>
+  </si>
+  <si>
+    <t>Cá bò</t>
   </si>
 </sst>
 </file>
@@ -2449,22 +2464,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="96">
         <f t="array" ref="A6">IF(C6&lt;&gt;0,SUM(($C$4:C6&lt;&gt;0)*1),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="165">
-        <f>'NGHỊ HÒA'!$K$70</f>
-        <v>0</v>
+        <f>'NGHỊ HÒA'!$K$77</f>
+        <v>34645600</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="96">
         <f t="array" ref="A7">IF(C7&lt;&gt;0,SUM(($C$4:C7&lt;&gt;0)*1),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>90</v>
@@ -2478,7 +2493,7 @@
     <row r="8" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="96">
         <f t="array" ref="A8">IF(C8&lt;&gt;0,SUM(($C$4:C8&lt;&gt;0)*1),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>96</v>
@@ -2492,7 +2507,7 @@
     <row r="9" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="96">
         <f t="array" ref="A9">IF(C9&lt;&gt;0,SUM(($C$4:C9&lt;&gt;0)*1),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="88" t="s">
         <v>269</v>
@@ -2558,7 +2573,7 @@
       <c r="B15" s="168"/>
       <c r="C15" s="167">
         <f>SUM(C4:C14)</f>
-        <v>334846673</v>
+        <v>369492273</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1"/>
@@ -4126,7 +4141,7 @@
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="H181" sqref="H181:H182"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9770,7 +9785,9 @@
       <c r="B176" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C176" s="13"/>
+      <c r="C176" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="D176" s="13" t="s">
         <v>18</v>
       </c>
@@ -9793,14 +9810,18 @@
         <f t="shared" si="23"/>
         <v>98912140</v>
       </c>
-      <c r="K176" s="28"/>
+      <c r="K176" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="177" spans="1:11" ht="21" customHeight="1">
       <c r="A177" s="15"/>
       <c r="B177" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C177" s="13"/>
+      <c r="C177" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D177" s="13" t="s">
         <v>18</v>
       </c>
@@ -9823,14 +9844,18 @@
         <f t="shared" si="23"/>
         <v>102872140</v>
       </c>
-      <c r="K177" s="28"/>
+      <c r="K177" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="178" spans="1:11" ht="21" customHeight="1">
       <c r="A178" s="15"/>
       <c r="B178" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C178" s="13"/>
+      <c r="C178" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="D178" s="13" t="s">
         <v>18</v>
       </c>
@@ -9853,7 +9878,9 @@
         <f t="shared" si="23"/>
         <v>115049140</v>
       </c>
-      <c r="K178" s="28"/>
+      <c r="K178" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="179" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="121">
@@ -9890,7 +9917,9 @@
       <c r="B180" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="13"/>
+      <c r="C180" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D180" s="13" t="s">
         <v>18</v>
       </c>
@@ -9913,7 +9942,9 @@
         <f t="shared" ref="J180:J186" si="31">IF(B180&lt;&gt;"",J179+H180-I180,0)</f>
         <v>78415140</v>
       </c>
-      <c r="K180" s="28"/>
+      <c r="K180" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="181" spans="1:11" ht="21" customHeight="1">
       <c r="A181" s="15">
@@ -9922,7 +9953,9 @@
       <c r="B181" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C181" s="13"/>
+      <c r="C181" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D181" s="13" t="s">
         <v>278</v>
       </c>
@@ -9945,14 +9978,18 @@
         <f t="shared" si="31"/>
         <v>89156640</v>
       </c>
-      <c r="K181" s="28"/>
+      <c r="K181" s="28" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="182" spans="1:11" ht="21" customHeight="1">
       <c r="A182" s="15"/>
       <c r="B182" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="13"/>
+      <c r="C182" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="D182" s="13" t="s">
         <v>182</v>
       </c>
@@ -9975,7 +10012,9 @@
         <f t="shared" si="31"/>
         <v>92082640</v>
       </c>
-      <c r="K182" s="28"/>
+      <c r="K182" s="28" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="183" spans="1:11" ht="21" customHeight="1">
       <c r="A183" s="15"/>
@@ -10205,16 +10244,16 @@
   </sheetData>
   <autoFilter ref="A11:K188"/>
   <mergeCells count="10">
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A188:F188"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.4" right="0.15" top="0.51" bottom="0.52" header="0.5" footer="0.5"/>
@@ -10228,12 +10267,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11073,7 +11112,7 @@
         <v>40000</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" ref="H31:H68" si="5">G31*10%</f>
+        <f t="shared" ref="H31:H66" si="5">G31*10%</f>
         <v>4000</v>
       </c>
       <c r="I31" s="21">
@@ -12079,12 +12118,12 @@
         <v>570</v>
       </c>
       <c r="I59" s="21">
-        <f t="shared" ref="I59:I68" si="10">IF(B59&lt;&gt;"",F59*(G59+H59),0)</f>
+        <f t="shared" ref="I59:I66" si="10">IF(B59&lt;&gt;"",F59*(G59+H59),0)</f>
         <v>27732210</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="71">
-        <f t="shared" ref="K59:K68" si="11">IF(B59&lt;&gt;"",K58+I59-J59,0)</f>
+        <f t="shared" ref="K59:K66" si="11">IF(B59&lt;&gt;"",K58+I59-J59,0)</f>
         <v>104256690</v>
       </c>
       <c r="L59" s="30"/>
@@ -12179,277 +12218,434 @@
     </row>
     <row r="63" spans="1:12" ht="20.25" customHeight="1">
       <c r="A63" s="72"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="B63" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="16">
+        <v>1025</v>
+      </c>
+      <c r="G63" s="16">
+        <v>6000</v>
+      </c>
       <c r="H63" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I63" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6765000</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="71">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="30"/>
+        <v>6765000</v>
+      </c>
+      <c r="L63" s="30" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="20.25" customHeight="1">
       <c r="A64" s="72"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+      <c r="B64" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="16">
+        <v>400</v>
+      </c>
+      <c r="G64" s="16">
+        <v>5600</v>
+      </c>
       <c r="H64" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="I64" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2464000</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="71">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="30"/>
+        <v>9229000</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="20.25" customHeight="1">
       <c r="A65" s="72"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="B65" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="16">
+        <v>485</v>
+      </c>
+      <c r="G65" s="16">
+        <v>6000</v>
+      </c>
       <c r="H65" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3201000</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="71">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="30"/>
+        <v>12430000</v>
+      </c>
+      <c r="L65" s="30" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="20.25" customHeight="1">
       <c r="A66" s="72"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="B66" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="16">
+        <v>320</v>
+      </c>
+      <c r="G66" s="16">
+        <v>5600</v>
+      </c>
       <c r="H66" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="I66" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1971200</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="71">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="30"/>
+        <v>14401200</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="20.25" customHeight="1">
       <c r="A67" s="72"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+      <c r="B67" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="16">
+        <v>1406</v>
+      </c>
+      <c r="G67" s="16">
+        <v>6000</v>
+      </c>
       <c r="H67" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="H67:H76" si="12">G67*10%</f>
+        <v>600</v>
       </c>
       <c r="I67" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="I67:I76" si="13">IF(B67&lt;&gt;"",F67*(G67+H67),0)</f>
+        <v>9279600</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="30"/>
+        <f t="shared" ref="K67:K76" si="14">IF(B67&lt;&gt;"",K66+I67-J67,0)</f>
+        <v>23680800</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="20.25" customHeight="1">
       <c r="A68" s="72"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+      <c r="B68" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="16">
+        <v>1780</v>
+      </c>
+      <c r="G68" s="16">
+        <v>5600</v>
+      </c>
       <c r="H68" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>560</v>
       </c>
       <c r="I68" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>10964800</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="71">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>34645600</v>
       </c>
       <c r="L68" s="30"/>
     </row>
     <row r="69" spans="1:12" ht="20.25" customHeight="1">
       <c r="A69" s="72"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="72"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="21"/>
+      <c r="H69" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="I69" s="21">
-        <f>IF(B69&lt;&gt;"",F69*(G69+H69),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="71">
-        <f>IF(B69&lt;&gt;"",K68+I69-J69,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L69" s="30"/>
     </row>
-    <row r="70" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A70" s="180" t="s">
+    <row r="70" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A70" s="72"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A71" s="72"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11"/>
+      <c r="K71" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A72" s="72"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11"/>
+      <c r="K72" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="30"/>
+    </row>
+    <row r="73" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A73" s="72"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A74" s="72"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="30"/>
+    </row>
+    <row r="75" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A75" s="72"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11"/>
+      <c r="K75" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="30"/>
+    </row>
+    <row r="76" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A76" s="72"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="30"/>
+    </row>
+    <row r="77" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A77" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="181"/>
-      <c r="C70" s="181"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="181"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="17">
-        <f>SUM(I13:I69)</f>
-        <v>354316490</v>
-      </c>
-      <c r="J70" s="17">
-        <f>SUM(J13:J69)</f>
+      <c r="B77" s="181"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="181"/>
+      <c r="F77" s="181"/>
+      <c r="G77" s="181"/>
+      <c r="H77" s="182"/>
+      <c r="I77" s="17">
+        <f>SUM(I13:I76)</f>
+        <v>388962090</v>
+      </c>
+      <c r="J77" s="17">
+        <f>SUM(J13:J76)</f>
         <v>398362365</v>
       </c>
-      <c r="K70" s="17">
-        <f>K12+I70-J70</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="115"/>
-    </row>
-    <row r="71" spans="1:12" ht="21" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:12" ht="21" customHeight="1">
-      <c r="B72" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="169">
-        <f>K70</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="169"/>
-      <c r="G72" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" ht="21" customHeight="1">
-      <c r="B73" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="73" t="str">
-        <f>[1]!VND(E72, TRUE)</f>
-        <v>Không đồng</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" ht="21" customHeight="1">
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" ht="21" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="19"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="19"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="K77" s="17">
+        <f>K12+I77-J77</f>
+        <v>34645600</v>
+      </c>
+      <c r="L77" s="115"/>
+    </row>
+    <row r="78" spans="1:12" ht="21" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -12461,53 +12657,58 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="19"/>
-      <c r="B79" s="3"/>
+    <row r="79" spans="1:12" ht="21" customHeight="1">
+      <c r="B79" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="19"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="19"/>
-      <c r="B81" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="169">
+        <f>K77</f>
+        <v>34645600</v>
+      </c>
+      <c r="F79" s="169"/>
+      <c r="G79" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" ht="21" customHeight="1">
+      <c r="B80" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="56"/>
+      <c r="D80" s="73" t="str">
+        <f>[1]!VND(E79, TRUE)</f>
+        <v>Ba mươi bốn triệu, sáu trăm bốn mươi lăm ngàn, sáu trăm đồng</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="21" customHeight="1">
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="19"/>
-      <c r="B82" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="21" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="19"/>
@@ -13325,16 +13526,100 @@
       <c r="J150" s="20"/>
       <c r="K150" s="20"/>
     </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="19"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="19"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="19"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="19"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="19"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="19"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="19"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A11:L70"/>
+  <autoFilter ref="A11:L77"/>
   <mergeCells count="8">
-    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A77:H77"/>
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/cong no VL 15.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -606,9 +606,6 @@
   </si>
   <si>
     <t>Ghẹ (xá)</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>51x34.5x8</t>
@@ -1554,7 +1551,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1856,9 +1853,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2445,7 +2439,7 @@
       <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="164">
+      <c r="C4" s="163">
         <f>'THÀNH PHÚ'!$I$54</f>
         <v>62481100</v>
       </c>
@@ -2458,9 +2452,9 @@
       <c r="B5" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="165">
+      <c r="C5" s="164">
         <f>'TẤN DŨNG'!$J$188</f>
-        <v>92082640</v>
+        <v>42082640</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
@@ -2471,7 +2465,7 @@
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="165">
+      <c r="C6" s="164">
         <f>'NGHỊ HÒA'!$K$77</f>
         <v>34645600</v>
       </c>
@@ -2484,8 +2478,8 @@
       <c r="B7" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="165">
-        <f>'MTN-DUOZON'!$I$26</f>
+      <c r="C7" s="164">
+        <f>'MTN-DUOZON'!$I$30</f>
         <v>9400000</v>
       </c>
       <c r="D7" s="100"/>
@@ -2498,7 +2492,7 @@
       <c r="B8" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="165">
+      <c r="C8" s="164">
         <f>'MÈ ĐƯỞNG'!$I$249</f>
         <v>124049533</v>
       </c>
@@ -2510,9 +2504,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="165">
+        <v>268</v>
+      </c>
+      <c r="C9" s="164">
         <f>'ANH KIM'!I61</f>
         <v>46833400</v>
       </c>
@@ -2524,9 +2518,9 @@
         <v/>
       </c>
       <c r="B10" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="165">
+        <v>242</v>
+      </c>
+      <c r="C10" s="164">
         <f>'TÂN MINH THƯ'!I40</f>
         <v>0</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v/>
       </c>
       <c r="B11" s="88"/>
-      <c r="C11" s="165"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
@@ -2547,7 +2541,7 @@
         <v/>
       </c>
       <c r="B12" s="88"/>
-      <c r="C12" s="165"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
@@ -2556,7 +2550,7 @@
         <v/>
       </c>
       <c r="B13" s="88"/>
-      <c r="C13" s="165"/>
+      <c r="C13" s="164"/>
     </row>
     <row r="14" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="96" t="str">
@@ -2564,16 +2558,16 @@
         <v/>
       </c>
       <c r="B14" s="89"/>
-      <c r="C14" s="166"/>
+      <c r="C14" s="165"/>
     </row>
     <row r="15" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="167">
+      <c r="B15" s="167"/>
+      <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>369492273</v>
+        <v>319492273</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1"/>
@@ -2771,9 +2765,9 @@
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="143" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="143" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="132" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="142" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="142" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="131" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
@@ -2782,82 +2776,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="150"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="150"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="149"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="42" customFormat="1" ht="9" hidden="1" customHeight="1">
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="151"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="170" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
+      <c r="A5" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="1:11" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:11" s="63" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="64"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="131"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -2867,9 +2861,9 @@
         <v>35</v>
       </c>
       <c r="C8" s="64"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="131"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -2881,9 +2875,9 @@
       <c r="C9" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="131"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
@@ -2899,13 +2893,13 @@
       <c r="C11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2922,16 +2916,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="174"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
       <c r="I12" s="7">
         <v>44477881</v>
       </c>
@@ -2947,13 +2941,13 @@
       <c r="C13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="144">
         <v>99400</v>
       </c>
-      <c r="E13" s="145">
+      <c r="E13" s="144">
         <v>333.5</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="133">
         <v>33.35</v>
       </c>
       <c r="G13" s="40">
@@ -2975,13 +2969,13 @@
       <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="146">
+      <c r="D14" s="145">
         <v>43980</v>
       </c>
-      <c r="E14" s="146">
+      <c r="E14" s="145">
         <v>429</v>
       </c>
-      <c r="F14" s="135">
+      <c r="F14" s="134">
         <v>42.9</v>
       </c>
       <c r="G14" s="11">
@@ -2995,17 +2989,17 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="121">
+    <row r="15" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="120">
         <v>41655</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="152"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="11">
         <f t="shared" ref="G15:G26" si="1">IF(B15&lt;&gt;"",D15*(E15+F15),0)</f>
         <v>0</v>
@@ -3018,25 +3012,25 @@
         <v>51696933</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="126"/>
+      <c r="K15" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
       <c r="A16" s="12">
         <v>41843</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="148">
+      <c r="D16" s="147">
         <v>185000</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="147">
         <v>290</v>
       </c>
-      <c r="F16" s="153">
+      <c r="F16" s="152">
         <f t="shared" ref="F16:F38" si="2">E16*10%</f>
         <v>29</v>
       </c>
@@ -3050,25 +3044,25 @@
         <v>110711933</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="130"/>
+      <c r="K16" s="129"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
       <c r="A17" s="12">
         <v>41841</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="148">
+        <v>199</v>
+      </c>
+      <c r="D17" s="147">
         <v>1</v>
       </c>
-      <c r="E17" s="148">
+      <c r="E17" s="147">
         <v>3000000</v>
       </c>
-      <c r="F17" s="153">
+      <c r="F17" s="152">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
@@ -3082,23 +3076,23 @@
         <v>114011933</v>
       </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="130"/>
+      <c r="K17" s="129"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="148">
+        <v>199</v>
+      </c>
+      <c r="D18" s="147">
         <v>1</v>
       </c>
-      <c r="E18" s="148">
+      <c r="E18" s="147">
         <v>3100000</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="152">
         <f t="shared" si="2"/>
         <v>310000</v>
       </c>
@@ -3112,23 +3106,23 @@
         <v>117421933</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="130"/>
+      <c r="K18" s="129"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="148">
+        <v>199</v>
+      </c>
+      <c r="D19" s="147">
         <v>1</v>
       </c>
-      <c r="E19" s="148">
+      <c r="E19" s="147">
         <v>3200000</v>
       </c>
-      <c r="F19" s="153">
+      <c r="F19" s="152">
         <f t="shared" si="2"/>
         <v>320000</v>
       </c>
@@ -3142,25 +3136,25 @@
         <v>120941933</v>
       </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="130"/>
+      <c r="K19" s="129"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1">
       <c r="A20" s="12">
         <v>41841</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="148">
+      <c r="D20" s="147">
         <v>68000</v>
       </c>
-      <c r="E20" s="148">
+      <c r="E20" s="147">
         <v>380</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -3174,23 +3168,23 @@
         <v>149365933</v>
       </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="130"/>
+      <c r="K20" s="129"/>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="148">
+      <c r="D21" s="147">
         <v>26700</v>
       </c>
-      <c r="E21" s="148">
+      <c r="E21" s="147">
         <v>690</v>
       </c>
-      <c r="F21" s="153">
+      <c r="F21" s="152">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3204,19 +3198,19 @@
         <v>169631233</v>
       </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="130"/>
-    </row>
-    <row r="22" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="121">
+      <c r="K21" s="129"/>
+    </row>
+    <row r="22" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="120">
         <v>41831</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="136"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3235,18 +3229,18 @@
         <v>41865</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="148">
+      <c r="D23" s="147">
         <v>13700</v>
       </c>
-      <c r="E23" s="148">
+      <c r="E23" s="147">
         <v>690</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3261,17 +3255,17 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="121">
+    <row r="24" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="120">
         <v>41939</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="136"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="11">
         <f>IF(B24&lt;&gt;"",D24*(E24+F24),0)</f>
         <v>0</v>
@@ -3290,18 +3284,18 @@
         <v>41944</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>14000</v>
       </c>
-      <c r="E25" s="147">
+      <c r="E25" s="146">
         <v>380</v>
       </c>
-      <c r="F25" s="153">
+      <c r="F25" s="152">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -3321,18 +3315,18 @@
         <v>41946</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="148">
+      <c r="D26" s="147">
         <v>47000</v>
       </c>
-      <c r="E26" s="148">
+      <c r="E26" s="147">
         <v>380</v>
       </c>
-      <c r="F26" s="153">
+      <c r="F26" s="152">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -3352,18 +3346,18 @@
         <v>41995</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="148">
+      <c r="D27" s="147">
         <v>15000</v>
       </c>
-      <c r="E27" s="148">
+      <c r="E27" s="147">
         <v>290</v>
       </c>
-      <c r="F27" s="153">
+      <c r="F27" s="152">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -3381,18 +3375,18 @@
     <row r="28" spans="1:11" ht="21" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D28" s="147">
         <v>66800</v>
       </c>
-      <c r="E28" s="148">
+      <c r="E28" s="147">
         <v>380</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="152">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -3410,18 +3404,18 @@
     <row r="29" spans="1:11" ht="21" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="148">
+      <c r="D29" s="147">
         <v>40000</v>
       </c>
-      <c r="E29" s="148">
+      <c r="E29" s="147">
         <v>690</v>
       </c>
-      <c r="F29" s="153">
+      <c r="F29" s="152">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3436,17 +3430,17 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="121">
+    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="120">
         <v>41992</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="136"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="11">
         <f>IF(B30&lt;&gt;"",D30*(E30+F30),0)</f>
         <v>0</v>
@@ -3465,18 +3459,18 @@
         <v>41996</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="148">
+      <c r="D31" s="147">
         <v>66000</v>
       </c>
-      <c r="E31" s="148">
+      <c r="E31" s="147">
         <v>290</v>
       </c>
-      <c r="F31" s="137">
+      <c r="F31" s="136">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -3496,18 +3490,18 @@
         <v>42003</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="148">
+      <c r="D32" s="147">
         <v>18000</v>
       </c>
-      <c r="E32" s="148">
+      <c r="E32" s="147">
         <v>690</v>
       </c>
-      <c r="F32" s="137">
+      <c r="F32" s="136">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3527,18 +3521,18 @@
         <v>42039</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="148">
+      <c r="D33" s="147">
         <v>61000</v>
       </c>
-      <c r="E33" s="148">
+      <c r="E33" s="147">
         <v>290</v>
       </c>
-      <c r="F33" s="137">
+      <c r="F33" s="136">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -3556,18 +3550,18 @@
     <row r="34" spans="1:10" ht="21" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="148">
+      <c r="D34" s="147">
         <v>109000</v>
       </c>
-      <c r="E34" s="148">
+      <c r="E34" s="147">
         <v>380</v>
       </c>
-      <c r="F34" s="137">
+      <c r="F34" s="136">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -3585,18 +3579,18 @@
     <row r="35" spans="1:10" ht="21" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="148">
+      <c r="D35" s="147">
         <v>57200</v>
       </c>
-      <c r="E35" s="148">
+      <c r="E35" s="147">
         <v>690</v>
       </c>
-      <c r="F35" s="137">
+      <c r="F35" s="136">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3611,17 +3605,17 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="121">
+    <row r="36" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="120">
         <v>42033</v>
       </c>
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="136"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="11">
         <f>IF(B36&lt;&gt;"",D36*(E36+F36),0)</f>
         <v>0</v>
@@ -3640,18 +3634,18 @@
         <v>42040</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="148">
+      <c r="D37" s="147">
         <v>136000</v>
       </c>
-      <c r="E37" s="148">
+      <c r="E37" s="147">
         <v>290</v>
       </c>
-      <c r="F37" s="137">
+      <c r="F37" s="136">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -3669,18 +3663,18 @@
     <row r="38" spans="1:10" ht="21" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="148">
+      <c r="D38" s="147">
         <v>8290</v>
       </c>
-      <c r="E38" s="148">
+      <c r="E38" s="147">
         <v>690</v>
       </c>
-      <c r="F38" s="137">
+      <c r="F38" s="136">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -3695,17 +3689,17 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="121">
+    <row r="39" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="120">
         <v>42040</v>
       </c>
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="11">
         <f>IF(B39&lt;&gt;"",D39*(E39+F39),0)</f>
         <v>0</v>
@@ -3719,17 +3713,17 @@
       </c>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A40" s="121">
+    <row r="40" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="120">
         <v>42072</v>
       </c>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="136"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="135"/>
       <c r="G40" s="11">
         <f>IF(B40&lt;&gt;"",D40*(E40+F40),0)</f>
         <v>0</v>
@@ -3749,18 +3743,18 @@
         <v>42081</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="148">
+      <c r="D41" s="147">
         <v>30000</v>
       </c>
-      <c r="E41" s="148">
+      <c r="E41" s="147">
         <v>290</v>
       </c>
-      <c r="F41" s="137">
+      <c r="F41" s="136">
         <f>E41*10%</f>
         <v>29</v>
       </c>
@@ -3778,18 +3772,18 @@
     <row r="42" spans="1:10" ht="21" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="148">
+      <c r="D42" s="147">
         <v>21000</v>
       </c>
-      <c r="E42" s="148">
+      <c r="E42" s="147">
         <v>390</v>
       </c>
-      <c r="F42" s="137">
+      <c r="F42" s="136">
         <f>E42*10%</f>
         <v>39</v>
       </c>
@@ -3807,18 +3801,18 @@
     <row r="43" spans="1:10" ht="21" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="148">
+      <c r="D43" s="147">
         <v>25000</v>
       </c>
-      <c r="E43" s="148">
+      <c r="E43" s="147">
         <v>650</v>
       </c>
-      <c r="F43" s="137">
+      <c r="F43" s="136">
         <f>E43*10%</f>
         <v>65</v>
       </c>
@@ -3838,18 +3832,18 @@
         <v>42082</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="148">
+      <c r="D44" s="147">
         <v>71100</v>
       </c>
-      <c r="E44" s="148">
+      <c r="E44" s="147">
         <v>290</v>
       </c>
-      <c r="F44" s="137">
+      <c r="F44" s="136">
         <f>E44*10%</f>
         <v>29</v>
       </c>
@@ -3867,18 +3861,18 @@
     <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="148">
+      <c r="D45" s="147">
         <v>7800</v>
       </c>
-      <c r="E45" s="148">
+      <c r="E45" s="147">
         <v>390</v>
       </c>
-      <c r="F45" s="137">
+      <c r="F45" s="136">
         <f>E45*10%</f>
         <v>39</v>
       </c>
@@ -3897,9 +3891,9 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="137"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="136"/>
       <c r="G46" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3915,9 +3909,9 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="137"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3933,9 +3927,9 @@
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="137"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3951,9 +3945,9 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="137"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3969,9 +3963,9 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="137"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3987,9 +3981,9 @@
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="137"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="136"/>
       <c r="G51" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4005,9 +3999,9 @@
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="137"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4023,9 +4017,9 @@
       <c r="A53" s="15"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="138"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="137"/>
       <c r="G53" s="16">
         <f>IF(B53&lt;&gt;"",D53*(E53+F53),0)</f>
         <v>0</v>
@@ -4038,14 +4032,14 @@
       <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A54" s="177" t="s">
+      <c r="A54" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="177"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
       <c r="G54" s="53">
         <f>I12+SUM(G13:G53)</f>
         <v>573903943</v>
@@ -4065,11 +4059,11 @@
       <c r="B56" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="169">
+      <c r="E56" s="168">
         <f>I54</f>
         <v>62481100</v>
       </c>
-      <c r="F56" s="169"/>
+      <c r="F56" s="168"/>
       <c r="G56" s="55" t="s">
         <v>43</v>
       </c>
@@ -4141,7 +4135,7 @@
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4160,38 +4154,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="46"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
@@ -4205,30 +4199,30 @@
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:11" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="62" t="s">
@@ -4244,13 +4238,13 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
@@ -4308,17 +4302,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="179"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
       <c r="J12" s="7">
         <v>88198890</v>
       </c>
@@ -4895,18 +4889,18 @@
       </c>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="121">
+    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="120">
         <v>41465</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127">
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4914,14 +4908,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30" s="126">
+      <c r="I30" s="125">
         <v>60000000</v>
       </c>
-      <c r="J30" s="126">
+      <c r="J30" s="125">
         <f t="shared" si="4"/>
         <v>60261040</v>
       </c>
-      <c r="K30" s="126"/>
+      <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1">
       <c r="A31" s="12">
@@ -5373,18 +5367,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="121">
+    <row r="44" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="120">
         <v>41499</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="127">
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5392,27 +5386,27 @@
         <f t="shared" ref="H44:H57" si="7">IF(B44&lt;&gt;"",(E44*(G44+F44)),0)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="126">
+      <c r="I44" s="125">
         <v>60000000</v>
       </c>
-      <c r="J44" s="126">
+      <c r="J44" s="125">
         <f t="shared" si="6"/>
         <v>120456665</v>
       </c>
-      <c r="K44" s="126"/>
-    </row>
-    <row r="45" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="121">
+      <c r="K44" s="125"/>
+    </row>
+    <row r="45" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="120">
         <v>41522</v>
       </c>
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127">
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5420,14 +5414,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I45" s="126">
+      <c r="I45" s="125">
         <v>50000000</v>
       </c>
-      <c r="J45" s="126">
+      <c r="J45" s="125">
         <f t="shared" ref="J45:J57" si="8">IF(B45&lt;&gt;"",J44+H45-I45,0)</f>
         <v>70456665</v>
       </c>
-      <c r="K45" s="126"/>
+      <c r="K45" s="125"/>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1">
       <c r="A46" s="15">
@@ -5705,18 +5699,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A54" s="121">
+    <row r="54" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="120">
         <v>41549</v>
       </c>
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="127">
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5724,14 +5718,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="126">
+      <c r="I54" s="125">
         <v>50000000</v>
       </c>
-      <c r="J54" s="126">
+      <c r="J54" s="125">
         <f t="shared" si="8"/>
         <v>104177665</v>
       </c>
-      <c r="K54" s="126"/>
+      <c r="K54" s="125"/>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1">
       <c r="A55" s="15">
@@ -6049,18 +6043,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A64" s="121">
+    <row r="64" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A64" s="120">
         <v>41586</v>
       </c>
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="127">
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6068,14 +6062,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I64" s="126">
+      <c r="I64" s="125">
         <v>70000000</v>
       </c>
-      <c r="J64" s="126">
+      <c r="J64" s="125">
         <f t="shared" si="10"/>
         <v>87297765</v>
       </c>
-      <c r="K64" s="126"/>
+      <c r="K64" s="125"/>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1">
       <c r="A65" s="15">
@@ -6527,18 +6521,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="121">
+    <row r="78" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="120">
         <v>41620</v>
       </c>
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="125"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="127">
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6546,27 +6540,27 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I78" s="126">
+      <c r="I78" s="125">
         <v>70000000</v>
       </c>
       <c r="J78" s="28">
         <f t="shared" si="12"/>
         <v>131344115</v>
       </c>
-      <c r="K78" s="126"/>
-    </row>
-    <row r="79" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A79" s="121">
+      <c r="K78" s="125"/>
+    </row>
+    <row r="79" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A79" s="120">
         <v>41655</v>
       </c>
-      <c r="B79" s="124" t="s">
+      <c r="B79" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="127">
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6574,25 +6568,25 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I79" s="126">
+      <c r="I79" s="125">
         <v>100000000</v>
       </c>
       <c r="J79" s="28">
         <f t="shared" si="12"/>
         <v>31344115</v>
       </c>
-      <c r="K79" s="126"/>
-    </row>
-    <row r="80" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A80" s="121"/>
-      <c r="B80" s="124" t="s">
+      <c r="K79" s="125"/>
+    </row>
+    <row r="80" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A80" s="120"/>
+      <c r="B80" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="127">
+      <c r="C80" s="121"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6600,14 +6594,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I80" s="126">
+      <c r="I80" s="125">
         <v>1000000</v>
       </c>
       <c r="J80" s="28">
         <f t="shared" si="12"/>
         <v>30344115</v>
       </c>
-      <c r="K80" s="126"/>
+      <c r="K80" s="125"/>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1">
       <c r="A81" s="15">
@@ -7059,18 +7053,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="121">
+    <row r="94" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A94" s="120">
         <v>41698</v>
       </c>
-      <c r="B94" s="124" t="s">
+      <c r="B94" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="122"/>
-      <c r="D94" s="122"/>
-      <c r="E94" s="125"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="127">
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="124"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7078,14 +7072,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I94" s="126">
+      <c r="I94" s="125">
         <v>50000000</v>
       </c>
       <c r="J94" s="28">
         <f t="shared" si="12"/>
         <v>103616715</v>
       </c>
-      <c r="K94" s="126"/>
+      <c r="K94" s="125"/>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1">
       <c r="A95" s="15">
@@ -7440,18 +7434,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A105" s="121">
+    <row r="105" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="120">
         <v>41766</v>
       </c>
-      <c r="B105" s="124" t="s">
+      <c r="B105" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="127">
+      <c r="C105" s="121"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7459,14 +7453,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I105" s="126">
+      <c r="I105" s="125">
         <v>50000000</v>
       </c>
       <c r="J105" s="28">
         <f t="shared" si="12"/>
         <v>133077140</v>
       </c>
-      <c r="K105" s="126"/>
+      <c r="K105" s="125"/>
     </row>
     <row r="106" spans="1:11" ht="21" customHeight="1">
       <c r="A106" s="15">
@@ -7707,7 +7701,7 @@
         <v>173153440</v>
       </c>
       <c r="K112" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" customHeight="1">
@@ -7719,7 +7713,7 @@
         <v>84</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E113" s="29">
         <v>320</v>
@@ -7744,18 +7738,18 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A114" s="121">
+    <row r="114" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A114" s="120">
         <v>41795</v>
       </c>
-      <c r="B114" s="124" t="s">
+      <c r="B114" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="127">
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="126">
         <f>F114*10%</f>
         <v>0</v>
       </c>
@@ -7763,14 +7757,14 @@
         <f>IF(B114&lt;&gt;"",(E114*(G114+F114)),0)</f>
         <v>0</v>
       </c>
-      <c r="I114" s="126">
+      <c r="I114" s="125">
         <v>60000000</v>
       </c>
       <c r="J114" s="28">
         <f t="shared" si="14"/>
         <v>117676640</v>
       </c>
-      <c r="K114" s="126"/>
+      <c r="K114" s="125"/>
     </row>
     <row r="115" spans="1:11" ht="21" customHeight="1">
       <c r="A115" s="15">
@@ -7839,7 +7833,7 @@
         <v>129666640</v>
       </c>
       <c r="K116" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="21" customHeight="1">
@@ -7873,7 +7867,7 @@
         <v>131648840</v>
       </c>
       <c r="K117" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="21" customHeight="1">
@@ -7943,7 +7937,7 @@
         <v>156636440</v>
       </c>
       <c r="K119" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="21" customHeight="1">
@@ -7979,21 +7973,21 @@
         <v>175336440</v>
       </c>
       <c r="K120" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="121">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="120">
         <v>41837</v>
       </c>
-      <c r="B121" s="124" t="s">
+      <c r="B121" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="122"/>
-      <c r="D121" s="122"/>
-      <c r="E121" s="125"/>
-      <c r="F121" s="126"/>
-      <c r="G121" s="127">
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="126">
         <f>F121*10%</f>
         <v>0</v>
       </c>
@@ -8001,14 +7995,14 @@
         <f>IF(B121&lt;&gt;"",(E121*(G121+F121)),0)</f>
         <v>0</v>
       </c>
-      <c r="I121" s="126">
+      <c r="I121" s="125">
         <v>50000000</v>
       </c>
       <c r="J121" s="28">
         <f t="shared" si="16"/>
         <v>125336440</v>
       </c>
-      <c r="K121" s="126"/>
+      <c r="K121" s="125"/>
     </row>
     <row r="122" spans="1:11" ht="21" customHeight="1">
       <c r="A122" s="15">
@@ -8043,21 +8037,21 @@
         <v>138018340</v>
       </c>
       <c r="K122" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A123" s="121">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="120">
         <v>41880</v>
       </c>
-      <c r="B123" s="124" t="s">
+      <c r="B123" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="125"/>
-      <c r="F123" s="126"/>
-      <c r="G123" s="127">
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="125"/>
+      <c r="G123" s="126">
         <f>F123*10%</f>
         <v>0</v>
       </c>
@@ -8065,27 +8059,27 @@
         <f>IF(B123&lt;&gt;"",(E123*(G123+F123)),0)</f>
         <v>0</v>
       </c>
-      <c r="I123" s="126">
+      <c r="I123" s="125">
         <v>70000000</v>
       </c>
       <c r="J123" s="28">
         <f>IF(B123&lt;&gt;"",J122+H123-I123,0)</f>
         <v>68018340</v>
       </c>
-      <c r="K123" s="126"/>
+      <c r="K123" s="125"/>
     </row>
     <row r="124" spans="1:11" ht="21" customHeight="1">
       <c r="A124" s="15">
         <v>41878</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E124" s="29">
         <v>350</v>
@@ -8107,7 +8101,7 @@
         <v>68865340</v>
       </c>
       <c r="K124" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="21" customHeight="1">
@@ -8218,7 +8212,7 @@
         <v>57</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>63</v>
@@ -8277,7 +8271,7 @@
         <v>118069440</v>
       </c>
       <c r="K129" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="21" customHeight="1">
@@ -8311,7 +8305,7 @@
         <v>124669440</v>
       </c>
       <c r="K130" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="21" customHeight="1">
@@ -8323,7 +8317,7 @@
         <v>22</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E131" s="29">
         <v>660</v>
@@ -8345,19 +8339,19 @@
         <v>137955240</v>
       </c>
       <c r="K131" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A132" s="121"/>
-      <c r="B132" s="124" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A132" s="120"/>
+      <c r="B132" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="125"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="127">
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="126">
         <f>F132*10%</f>
         <v>0</v>
       </c>
@@ -8365,12 +8359,12 @@
         <f>IF(B132&lt;&gt;"",(E132*(G132+F132)),0)</f>
         <v>0</v>
       </c>
-      <c r="I132" s="126"/>
+      <c r="I132" s="125"/>
       <c r="J132" s="28">
         <f t="shared" si="16"/>
         <v>137955240</v>
       </c>
-      <c r="K132" s="126">
+      <c r="K132" s="125">
         <v>68876250</v>
       </c>
     </row>
@@ -8385,7 +8379,7 @@
         <v>108</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E133" s="29">
         <v>600</v>
@@ -8543,7 +8537,7 @@
         <v>182355090</v>
       </c>
       <c r="K137" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="21" customHeight="1">
@@ -8583,13 +8577,13 @@
     <row r="139" spans="1:11" ht="21" customHeight="1">
       <c r="A139" s="15"/>
       <c r="B139" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E139" s="29">
         <v>300</v>
@@ -8612,18 +8606,18 @@
       </c>
       <c r="K139" s="28"/>
     </row>
-    <row r="140" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="121">
+    <row r="140" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A140" s="120">
         <v>41997</v>
       </c>
-      <c r="B140" s="124" t="s">
+      <c r="B140" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="122"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="125"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="127">
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="125"/>
+      <c r="G140" s="126">
         <f>F140*10%</f>
         <v>0</v>
       </c>
@@ -8631,14 +8625,14 @@
         <f>IF(B140&lt;&gt;"",(E140*(G140+F140)),0)</f>
         <v>0</v>
       </c>
-      <c r="I140" s="126">
+      <c r="I140" s="125">
         <v>100000000</v>
       </c>
       <c r="J140" s="28">
         <f>IF(B140&lt;&gt;"",J139+H140-I140,0)</f>
         <v>98233590</v>
       </c>
-      <c r="K140" s="126"/>
+      <c r="K140" s="125"/>
     </row>
     <row r="141" spans="1:11" ht="21" customHeight="1">
       <c r="A141" s="15">
@@ -8648,7 +8642,7 @@
         <v>57</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>182</v>
@@ -8719,7 +8713,7 @@
         <v>143</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E143" s="29">
         <v>2390</v>
@@ -8778,7 +8772,7 @@
         <v>57</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>85</v>
@@ -8804,18 +8798,18 @@
       </c>
       <c r="K145" s="28"/>
     </row>
-    <row r="146" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="121">
+    <row r="146" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="120">
         <v>42049</v>
       </c>
-      <c r="B146" s="124" t="s">
+      <c r="B146" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="122"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="125"/>
-      <c r="F146" s="126"/>
-      <c r="G146" s="127">
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="124"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="126">
         <f>F146*10%</f>
         <v>0</v>
       </c>
@@ -8823,14 +8817,14 @@
         <f>IF(B146&lt;&gt;"",(E146*(G146+F146)),0)</f>
         <v>0</v>
       </c>
-      <c r="I146" s="126">
+      <c r="I146" s="125">
         <v>100000000</v>
       </c>
       <c r="J146" s="28">
         <f>IF(B146&lt;&gt;"",J145+H146-I146,0)</f>
         <v>57545040</v>
       </c>
-      <c r="K146" s="126"/>
+      <c r="K146" s="125"/>
     </row>
     <row r="147" spans="1:11" ht="21" customHeight="1">
       <c r="A147" s="15">
@@ -8965,7 +8959,7 @@
         <v>97565240</v>
       </c>
       <c r="K150" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="21" customHeight="1">
@@ -9002,18 +8996,18 @@
       </c>
       <c r="K151" s="28"/>
     </row>
-    <row r="152" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A152" s="121">
+    <row r="152" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A152" s="120">
         <v>42098</v>
       </c>
-      <c r="B152" s="124" t="s">
+      <c r="B152" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="122"/>
-      <c r="D152" s="122"/>
-      <c r="E152" s="125"/>
-      <c r="F152" s="126"/>
-      <c r="G152" s="127">
+      <c r="C152" s="121"/>
+      <c r="D152" s="121"/>
+      <c r="E152" s="124"/>
+      <c r="F152" s="125"/>
+      <c r="G152" s="126">
         <f>F152*10%</f>
         <v>0</v>
       </c>
@@ -9021,14 +9015,14 @@
         <f>IF(B152&lt;&gt;"",(E152*(G152+F152)),0)</f>
         <v>0</v>
       </c>
-      <c r="I152" s="126">
+      <c r="I152" s="125">
         <v>50000000</v>
       </c>
       <c r="J152" s="28">
         <f>IF(B152&lt;&gt;"",J151+H152-I152,0)</f>
         <v>50522040</v>
       </c>
-      <c r="K152" s="126"/>
+      <c r="K152" s="125"/>
     </row>
     <row r="153" spans="1:11" ht="21" customHeight="1">
       <c r="A153" s="15">
@@ -9107,7 +9101,7 @@
         <v>84</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E155" s="29">
         <v>1000</v>
@@ -9173,7 +9167,7 @@
         <v>84</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E157" s="29">
         <v>1000</v>
@@ -9196,18 +9190,18 @@
       </c>
       <c r="K157" s="28"/>
     </row>
-    <row r="158" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="121">
+    <row r="158" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A158" s="120">
         <v>42146</v>
       </c>
-      <c r="B158" s="124" t="s">
+      <c r="B158" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="122"/>
-      <c r="D158" s="122"/>
-      <c r="E158" s="125"/>
-      <c r="F158" s="126"/>
-      <c r="G158" s="127">
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="124"/>
+      <c r="F158" s="125"/>
+      <c r="G158" s="126">
         <f>F158*10%</f>
         <v>0</v>
       </c>
@@ -9215,14 +9209,14 @@
         <f>IF(B158&lt;&gt;"",(E158*(G158+F158)),0)</f>
         <v>0</v>
       </c>
-      <c r="I158" s="126">
+      <c r="I158" s="125">
         <v>50000000</v>
       </c>
       <c r="J158" s="28">
         <f>IF(B158&lt;&gt;"",J157+H158-I158,0)</f>
         <v>67974040</v>
       </c>
-      <c r="K158" s="126"/>
+      <c r="K158" s="125"/>
     </row>
     <row r="159" spans="1:11" ht="21" customHeight="1">
       <c r="A159" s="15">
@@ -9264,7 +9258,7 @@
         <v>57</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>182</v>
@@ -9324,18 +9318,18 @@
       </c>
       <c r="K161" s="28"/>
     </row>
-    <row r="162" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="121">
+    <row r="162" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A162" s="120">
         <v>42184</v>
       </c>
-      <c r="B162" s="124" t="s">
+      <c r="B162" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="122"/>
-      <c r="D162" s="122"/>
-      <c r="E162" s="125"/>
-      <c r="F162" s="126"/>
-      <c r="G162" s="127">
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="124"/>
+      <c r="F162" s="125"/>
+      <c r="G162" s="126">
         <f>F162*10%</f>
         <v>0</v>
       </c>
@@ -9343,14 +9337,14 @@
         <f>IF(B162&lt;&gt;"",(E162*(G162+F162)),0)</f>
         <v>0</v>
       </c>
-      <c r="I162" s="126">
+      <c r="I162" s="125">
         <v>50000000</v>
       </c>
       <c r="J162" s="28">
         <f t="shared" si="23"/>
         <v>55105640</v>
       </c>
-      <c r="K162" s="126"/>
+      <c r="K162" s="125"/>
     </row>
     <row r="163" spans="1:11" ht="21" customHeight="1">
       <c r="A163" s="15">
@@ -9427,7 +9421,7 @@
         <v>70</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E165" s="29">
         <v>260</v>
@@ -9450,18 +9444,18 @@
       </c>
       <c r="K165" s="28"/>
     </row>
-    <row r="166" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="121">
+    <row r="166" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A166" s="120">
         <v>42213</v>
       </c>
-      <c r="B166" s="124" t="s">
+      <c r="B166" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="122"/>
-      <c r="D166" s="122"/>
-      <c r="E166" s="125"/>
-      <c r="F166" s="126"/>
-      <c r="G166" s="127">
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="124"/>
+      <c r="F166" s="125"/>
+      <c r="G166" s="126">
         <f>F166*10%</f>
         <v>0</v>
       </c>
@@ -9469,14 +9463,14 @@
         <f>IF(B166&lt;&gt;"",(E166*(G166+F166)),0)</f>
         <v>0</v>
       </c>
-      <c r="I166" s="126">
+      <c r="I166" s="125">
         <v>50000000</v>
       </c>
       <c r="J166" s="28">
         <f t="shared" si="23"/>
         <v>17282640</v>
       </c>
-      <c r="K166" s="126"/>
+      <c r="K166" s="125"/>
     </row>
     <row r="167" spans="1:11" ht="21" customHeight="1">
       <c r="A167" s="15">
@@ -9486,10 +9480,10 @@
         <v>57</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E167" s="29">
         <v>750</v>
@@ -9511,7 +9505,7 @@
         <v>29245140</v>
       </c>
       <c r="K167" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="21" customHeight="1">
@@ -9520,7 +9514,7 @@
         <v>57</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>18</v>
@@ -9545,7 +9539,7 @@
         <v>37836140</v>
       </c>
       <c r="K168" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="21" customHeight="1">
@@ -9589,7 +9583,7 @@
         <v>70</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E170" s="29">
         <v>1000</v>
@@ -9620,10 +9614,10 @@
         <v>57</v>
       </c>
       <c r="C171" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D171" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="E171" s="29">
         <v>4900</v>
@@ -9645,7 +9639,7 @@
         <v>137980140</v>
       </c>
       <c r="K171" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="21" customHeight="1">
@@ -9690,7 +9684,7 @@
         <v>57</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>18</v>
@@ -9724,10 +9718,10 @@
         <v>57</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E174" s="29">
         <v>400</v>
@@ -9750,18 +9744,18 @@
       </c>
       <c r="K174" s="28"/>
     </row>
-    <row r="175" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A175" s="121">
+    <row r="175" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="120">
         <v>42278</v>
       </c>
-      <c r="B175" s="124" t="s">
+      <c r="B175" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="122"/>
-      <c r="D175" s="122"/>
-      <c r="E175" s="125"/>
-      <c r="F175" s="126"/>
-      <c r="G175" s="127">
+      <c r="C175" s="121"/>
+      <c r="D175" s="121"/>
+      <c r="E175" s="124"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="126">
         <f>F175*10%</f>
         <v>0</v>
       </c>
@@ -9769,14 +9763,14 @@
         <f>IF(B175&lt;&gt;"",(E175*(G175+F175)),0)</f>
         <v>0</v>
       </c>
-      <c r="I175" s="126">
+      <c r="I175" s="125">
         <v>70000000</v>
       </c>
       <c r="J175" s="28">
         <f t="shared" si="23"/>
         <v>93896140</v>
       </c>
-      <c r="K175" s="126"/>
+      <c r="K175" s="125"/>
     </row>
     <row r="176" spans="1:11" ht="21" customHeight="1">
       <c r="A176" s="15">
@@ -9786,7 +9780,7 @@
         <v>57</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>18</v>
@@ -9811,7 +9805,7 @@
         <v>98912140</v>
       </c>
       <c r="K176" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="21" customHeight="1">
@@ -9845,7 +9839,7 @@
         <v>102872140</v>
       </c>
       <c r="K177" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="21" customHeight="1">
@@ -9854,7 +9848,7 @@
         <v>57</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>18</v>
@@ -9879,21 +9873,21 @@
         <v>115049140</v>
       </c>
       <c r="K178" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A179" s="121">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="120">
         <v>42320</v>
       </c>
-      <c r="B179" s="124" t="s">
+      <c r="B179" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="122"/>
-      <c r="D179" s="122"/>
-      <c r="E179" s="125"/>
-      <c r="F179" s="126"/>
-      <c r="G179" s="127">
+      <c r="C179" s="121"/>
+      <c r="D179" s="121"/>
+      <c r="E179" s="124"/>
+      <c r="F179" s="125"/>
+      <c r="G179" s="126">
         <f>F179*10%</f>
         <v>0</v>
       </c>
@@ -9901,14 +9895,14 @@
         <f>IF(B179&lt;&gt;"",(E179*(G179+F179)),0)</f>
         <v>0</v>
       </c>
-      <c r="I179" s="126">
+      <c r="I179" s="125">
         <v>40000000</v>
       </c>
       <c r="J179" s="28">
         <f t="shared" ref="J179" si="28">IF(B179&lt;&gt;"",J178+H179-I179,0)</f>
         <v>75049140</v>
       </c>
-      <c r="K179" s="126"/>
+      <c r="K179" s="125"/>
     </row>
     <row r="180" spans="1:11" ht="21" customHeight="1">
       <c r="A180" s="15">
@@ -9943,7 +9937,7 @@
         <v>78415140</v>
       </c>
       <c r="K180" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="21" customHeight="1">
@@ -9957,7 +9951,7 @@
         <v>84</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E181" s="29">
         <v>450</v>
@@ -9979,7 +9973,7 @@
         <v>89156640</v>
       </c>
       <c r="K181" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="21" customHeight="1">
@@ -9988,7 +9982,7 @@
         <v>57</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>182</v>
@@ -10013,30 +10007,36 @@
         <v>92082640</v>
       </c>
       <c r="K182" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="21" customHeight="1">
-      <c r="A183" s="15"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="102">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H183" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I183" s="28"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A183" s="120">
+        <v>42349</v>
+      </c>
+      <c r="B183" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="121"/>
+      <c r="D183" s="121"/>
+      <c r="E183" s="124"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="126">
+        <f>F183*10%</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="32">
+        <f>IF(B183&lt;&gt;"",(E183*(G183+F183)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I183" s="125">
+        <v>50000000</v>
+      </c>
       <c r="J183" s="28">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K183" s="28"/>
+        <v>42082640</v>
+      </c>
+      <c r="K183" s="125"/>
     </row>
     <row r="184" spans="1:11" ht="21" customHeight="1">
       <c r="A184" s="15"/>
@@ -10127,14 +10127,14 @@
       <c r="K187" s="28"/>
     </row>
     <row r="188" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A188" s="177" t="s">
+      <c r="A188" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B188" s="177"/>
-      <c r="C188" s="177"/>
-      <c r="D188" s="177"/>
-      <c r="E188" s="177"/>
-      <c r="F188" s="177"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
+      <c r="E188" s="176"/>
+      <c r="F188" s="176"/>
       <c r="G188" s="17"/>
       <c r="H188" s="53">
         <f>SUM(H13:H187)</f>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="I188" s="53">
         <f>K10+SUM(I13:I187)</f>
-        <v>1461000000</v>
+        <v>1511000000</v>
       </c>
       <c r="J188" s="17">
         <f>J12+H188-I188</f>
-        <v>92082640</v>
+        <v>42082640</v>
       </c>
       <c r="K188" s="17"/>
     </row>
@@ -10163,11 +10163,11 @@
         <v>41</v>
       </c>
       <c r="D190" s="4"/>
-      <c r="E190" s="169">
+      <c r="E190" s="168">
         <f>J188</f>
-        <v>92082640</v>
-      </c>
-      <c r="F190" s="169"/>
+        <v>42082640</v>
+      </c>
+      <c r="F190" s="168"/>
       <c r="G190" s="101"/>
       <c r="H190" s="55" t="s">
         <v>43</v>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="C191" s="56" t="str">
         <f>[1]!VND(E190, TRUE)</f>
-        <v>Chín mươi hai triệu, không trăm tám mươi hai ngàn, sáu trăm bốn mươi đồng</v>
+        <v>Bốn mươi hai triệu, không trăm tám mươi hai ngàn, sáu trăm bốn mươi đồng</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -10293,11 +10293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -10315,14 +10315,14 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="46"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
@@ -10334,30 +10334,30 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:12" s="45" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
     </row>
     <row r="6" spans="1:12" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -10440,18 +10440,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="7">
         <v>44045875</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>8008000</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
@@ -11162,7 +11162,7 @@
         <v>11528000</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1">
@@ -11170,13 +11170,13 @@
         <v>41836</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>17</v>
@@ -11201,19 +11201,19 @@
         <v>12413500</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
       <c r="B34" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>17</v>
@@ -11238,19 +11238,19 @@
         <v>13222000</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>17</v>
@@ -11275,7 +11275,7 @@
         <v>14030500</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1">
@@ -11284,10 +11284,10 @@
         <v>57</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>17</v>
@@ -11321,10 +11321,10 @@
         <v>57</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>17</v>
@@ -11360,10 +11360,10 @@
         <v>57</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>17</v>
@@ -11397,10 +11397,10 @@
         <v>57</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>17</v>
@@ -11434,10 +11434,10 @@
         <v>57</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>17</v>
@@ -11470,13 +11470,13 @@
         <v>41844</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>17</v>
@@ -11501,19 +11501,19 @@
         <v>41440300</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.25" customHeight="1">
       <c r="A42" s="72"/>
       <c r="B42" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>17</v>
@@ -11538,7 +11538,7 @@
         <v>47654200</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.25" customHeight="1">
@@ -11576,10 +11576,10 @@
         <v>57</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>17</v>
@@ -11610,13 +11610,13 @@
     <row r="45" spans="1:12" ht="20.25" customHeight="1">
       <c r="A45" s="72"/>
       <c r="B45" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>17</v>
@@ -11641,7 +11641,7 @@
         <v>57045890</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="20.25" customHeight="1">
@@ -11649,13 +11649,13 @@
         <v>41986</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>17</v>
@@ -11712,13 +11712,13 @@
         <v>42040</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -11747,13 +11747,13 @@
     <row r="49" spans="1:12" ht="20.25" customHeight="1">
       <c r="A49" s="72"/>
       <c r="B49" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>17</v>
@@ -11782,13 +11782,13 @@
     <row r="50" spans="1:12" ht="20.25" customHeight="1">
       <c r="A50" s="72"/>
       <c r="B50" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>17</v>
@@ -11817,13 +11817,13 @@
     <row r="51" spans="1:12" ht="20.25" customHeight="1">
       <c r="A51" s="72"/>
       <c r="B51" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -11854,13 +11854,13 @@
         <v>42042</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -11889,13 +11889,13 @@
     <row r="53" spans="1:12" ht="20.25" customHeight="1">
       <c r="A53" s="72"/>
       <c r="B53" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>17</v>
@@ -11924,13 +11924,13 @@
     <row r="54" spans="1:12" ht="20.25" customHeight="1">
       <c r="A54" s="72"/>
       <c r="B54" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>17</v>
@@ -11961,13 +11961,13 @@
         <v>42043</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -11996,13 +11996,13 @@
     <row r="56" spans="1:12" ht="20.25" customHeight="1">
       <c r="A56" s="72"/>
       <c r="B56" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>17</v>
@@ -12033,13 +12033,13 @@
         <v>42045</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>17</v>
@@ -12096,13 +12096,13 @@
         <v>42083</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>17</v>
@@ -12131,13 +12131,13 @@
     <row r="60" spans="1:12" ht="20.25" customHeight="1">
       <c r="A60" s="72"/>
       <c r="B60" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>17</v>
@@ -12219,13 +12219,13 @@
     <row r="63" spans="1:12" ht="20.25" customHeight="1">
       <c r="A63" s="72"/>
       <c r="B63" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>17</v>
@@ -12250,19 +12250,19 @@
         <v>6765000</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="20.25" customHeight="1">
       <c r="A64" s="72"/>
       <c r="B64" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>17</v>
@@ -12287,19 +12287,19 @@
         <v>9229000</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="20.25" customHeight="1">
       <c r="A65" s="72"/>
       <c r="B65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>17</v>
@@ -12324,19 +12324,19 @@
         <v>12430000</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="20.25" customHeight="1">
       <c r="A66" s="72"/>
       <c r="B66" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>17</v>
@@ -12361,19 +12361,19 @@
         <v>14401200</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="20.25" customHeight="1">
       <c r="A67" s="72"/>
       <c r="B67" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>17</v>
@@ -12398,19 +12398,19 @@
         <v>23680800</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="20.25" customHeight="1">
       <c r="A68" s="72"/>
       <c r="B68" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>17</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="70" spans="1:12" ht="20.25" customHeight="1">
       <c r="A70" s="72"/>
-      <c r="B70" s="128"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="72"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="71" spans="1:12" ht="20.25" customHeight="1">
       <c r="A71" s="72"/>
-      <c r="B71" s="128"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="72"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="72" spans="1:12" ht="20.25" customHeight="1">
       <c r="A72" s="72"/>
-      <c r="B72" s="128"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="72"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="73" spans="1:12" ht="20.25" customHeight="1">
       <c r="A73" s="72"/>
-      <c r="B73" s="128"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="72"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="74" spans="1:12" ht="20.25" customHeight="1">
       <c r="A74" s="72"/>
-      <c r="B74" s="128"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="72"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="75" spans="1:12" ht="20.25" customHeight="1">
       <c r="A75" s="72"/>
-      <c r="B75" s="128"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="72"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="76" spans="1:12" ht="20.25" customHeight="1">
       <c r="A76" s="72"/>
-      <c r="B76" s="128"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="72"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -12621,16 +12621,16 @@
       <c r="L76" s="30"/>
     </row>
     <row r="77" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A77" s="180" t="s">
+      <c r="A77" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="181"/>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
-      <c r="E77" s="181"/>
-      <c r="F77" s="181"/>
-      <c r="G77" s="181"/>
-      <c r="H77" s="182"/>
+      <c r="B77" s="180"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
+      <c r="E77" s="180"/>
+      <c r="F77" s="180"/>
+      <c r="G77" s="180"/>
+      <c r="H77" s="181"/>
       <c r="I77" s="17">
         <f>SUM(I13:I76)</f>
         <v>388962090</v>
@@ -12663,11 +12663,11 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="169">
+      <c r="E79" s="168">
         <f>K77</f>
         <v>34645600</v>
       </c>
-      <c r="F79" s="169"/>
+      <c r="F79" s="168"/>
       <c r="G79" s="55" t="s">
         <v>43</v>
       </c>
@@ -13634,12 +13634,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="33"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13658,37 +13658,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
@@ -13701,28 +13701,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="117" t="s">
@@ -13792,16 +13792,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="174"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
       <c r="I12" s="7">
         <v>32075000</v>
       </c>
@@ -13823,12 +13823,12 @@
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="11">
-        <f t="shared" ref="G13:G25" si="0">IF(B13&lt;&gt;"",D13*(E13+F13),0)</f>
+        <f t="shared" ref="G13:G21" si="0">IF(B13&lt;&gt;"",D13*(E13+F13),0)</f>
         <v>18800000</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="11">
-        <f t="shared" ref="I13:I25" si="1">IF(B13&lt;&gt;"",I12+G13-H13,0)</f>
+        <f t="shared" ref="I13:I24" si="1">IF(B13&lt;&gt;"",I12+G13-H13,0)</f>
         <v>50875000</v>
       </c>
       <c r="J13" s="40"/>
@@ -13865,7 +13865,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="120">
+      <c r="D15" s="119">
         <v>200</v>
       </c>
       <c r="E15" s="14">
@@ -13891,7 +13891,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="120">
+      <c r="D16" s="119">
         <v>200</v>
       </c>
       <c r="E16" s="14">
@@ -13941,7 +13941,7 @@
         <v>89</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="120">
+      <c r="D18" s="119">
         <v>200</v>
       </c>
       <c r="E18" s="14">
@@ -13967,7 +13967,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="129">
+      <c r="D19" s="128">
         <f>10*35</f>
         <v>350</v>
       </c>
@@ -14015,11 +14015,11 @@
         <v>41792</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="120" t="s">
-        <v>192</v>
+      <c r="D21" s="119">
+        <v>200</v>
       </c>
       <c r="E21" s="14">
         <v>47000</v>
@@ -14066,18 +14066,18 @@
         <v>41885</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="120" t="s">
-        <v>192</v>
+      <c r="D23" s="119">
+        <v>200</v>
       </c>
       <c r="E23" s="14">
         <v>47000</v>
       </c>
       <c r="F23" s="113"/>
       <c r="G23" s="11">
-        <f>IF(B23&lt;&gt;"",D23*(E23+F23),0)</f>
+        <f t="shared" ref="G23:G24" si="2">IF(B23&lt;&gt;"",D23*(E23+F23),0)</f>
         <v>9400000</v>
       </c>
       <c r="H23" s="11"/>
@@ -14088,112 +14088,210 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12">
+        <v>42327</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="128">
+        <v>125</v>
+      </c>
+      <c r="E24" s="14">
+        <v>47000</v>
+      </c>
       <c r="F24" s="113"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>5875000</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15275000</v>
       </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="114"/>
+      <c r="A25" s="34">
+        <v>42332</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11"/>
+        <f>IF(B25&lt;&gt;"",D25*(E25+F25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="36">
+        <f>I24</f>
+        <v>15275000</v>
+      </c>
       <c r="I25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="177" t="s">
+        <f>IF(B25&lt;&gt;"",I24+G25-H25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
+      <c r="A26" s="12">
+        <v>42342</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="119">
+        <v>200</v>
+      </c>
+      <c r="E26" s="14">
+        <v>47000</v>
+      </c>
+      <c r="F26" s="113"/>
+      <c r="G26" s="11">
+        <f t="shared" ref="G26:G29" si="3">IF(B26&lt;&gt;"",D26*(E26+F26),0)</f>
+        <v>9400000</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11">
+        <f t="shared" ref="I26:I29" si="4">IF(B26&lt;&gt;"",I25+G26-H26,0)</f>
+        <v>9400000</v>
+      </c>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="53">
-        <f>I12+SUM(G13:G25)</f>
-        <v>102775000</v>
-      </c>
-      <c r="H26" s="53">
-        <f>SUM(H13:H25)</f>
-        <v>93375000</v>
-      </c>
-      <c r="I26" s="17">
-        <f>G26-H26</f>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="53">
+        <f>I12+SUM(G13:G29)</f>
+        <v>118050000</v>
+      </c>
+      <c r="H30" s="53">
+        <f>SUM(H13:H29)</f>
+        <v>108650000</v>
+      </c>
+      <c r="I30" s="17">
+        <f>G30-H30</f>
         <v>9400000</v>
       </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1"/>
-    <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="B28" s="54" t="s">
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1"/>
+    <row r="32" spans="1:10" ht="21" customHeight="1">
+      <c r="B32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="169">
-        <f>I26</f>
+      <c r="E32" s="168">
+        <f>I30</f>
         <v>9400000</v>
       </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="55" t="s">
+      <c r="F32" s="168"/>
+      <c r="G32" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="B29" s="54" t="s">
+    <row r="33" spans="1:8" ht="21" customHeight="1">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="56"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1"/>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="H31" s="20" t="s">
+      <c r="C33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" ht="21" customHeight="1"/>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+      <c r="H35" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="4" t="s">
+    <row r="36" spans="1:8" ht="21" customHeight="1">
+      <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" ht="21" customHeight="1"/>
-    <row r="34" ht="21" customHeight="1"/>
-    <row r="35" ht="21" customHeight="1"/>
-    <row r="36" ht="21" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1"/>
-    <row r="38" ht="21" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="21" customHeight="1"/>
-    <row r="41" ht="21" customHeight="1"/>
-    <row r="42" ht="21" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="21" customHeight="1"/>
-    <row r="46" ht="21" customHeight="1"/>
+    <row r="37" spans="1:8" ht="21" customHeight="1"/>
+    <row r="38" spans="1:8" ht="21" customHeight="1"/>
+    <row r="39" spans="1:8" ht="21" customHeight="1"/>
+    <row r="40" spans="1:8" ht="21" customHeight="1"/>
+    <row r="41" spans="1:8" ht="21" customHeight="1"/>
+    <row r="42" spans="1:8" ht="21" customHeight="1"/>
+    <row r="43" spans="1:8" ht="21" customHeight="1"/>
+    <row r="44" spans="1:8" ht="21" customHeight="1"/>
+    <row r="45" spans="1:8" ht="21" customHeight="1"/>
+    <row r="46" spans="1:8" ht="21" customHeight="1"/>
+    <row r="47" spans="1:8" ht="21" customHeight="1"/>
+    <row r="48" spans="1:8" ht="21" customHeight="1"/>
+    <row r="49" ht="21" customHeight="1"/>
+    <row r="50" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A12:H12"/>
@@ -14201,7 +14299,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.43" right="0.15" top="0.51" bottom="0.54" header="0.5" footer="0.5"/>
@@ -14239,37 +14337,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
@@ -14282,28 +14380,28 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="117" t="s">
@@ -14374,16 +14472,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="174"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
       <c r="I12" s="7">
         <v>89700000</v>
       </c>
@@ -19103,7 +19201,7 @@
     <row r="193" spans="1:10" ht="21" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>15</v>
@@ -20037,7 +20135,7 @@
     <row r="228" spans="1:10" ht="21" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="11"/>
@@ -20057,7 +20155,7 @@
     <row r="229" spans="1:10" ht="21" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="11">
@@ -20157,7 +20255,7 @@
     <row r="233" spans="1:10" ht="21" customHeight="1">
       <c r="A233" s="12"/>
       <c r="B233" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="11">
@@ -20183,7 +20281,7 @@
         <v>42188</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="11">
@@ -20381,7 +20479,7 @@
     <row r="242" spans="1:10" ht="21" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="11">
@@ -20525,14 +20623,14 @@
       <c r="J248" s="11"/>
     </row>
     <row r="249" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A249" s="177" t="s">
+      <c r="A249" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B249" s="177"/>
-      <c r="C249" s="177"/>
-      <c r="D249" s="177"/>
-      <c r="E249" s="177"/>
-      <c r="F249" s="177"/>
+      <c r="B249" s="176"/>
+      <c r="C249" s="176"/>
+      <c r="D249" s="176"/>
+      <c r="E249" s="176"/>
+      <c r="F249" s="176"/>
       <c r="G249" s="53">
         <f>SUM(G13:G248)</f>
         <v>2466059533</v>
@@ -20552,11 +20650,11 @@
       <c r="B251" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E251" s="169">
+      <c r="E251" s="168">
         <f>I249</f>
         <v>124049533</v>
       </c>
-      <c r="F251" s="169"/>
+      <c r="F251" s="168"/>
       <c r="G251" s="55" t="s">
         <v>43</v>
       </c>
@@ -20635,7 +20733,7 @@
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="132"/>
+    <col min="4" max="4" width="9" style="131"/>
     <col min="5" max="5" width="8.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="109" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" customWidth="1"/>
@@ -20646,79 +20744,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="154"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="103"/>
       <c r="F1" s="106"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="106"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="176"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="104"/>
       <c r="F3" s="106"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1">
-      <c r="D4" s="155"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="105"/>
       <c r="F4" s="107"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="64"/>
-      <c r="D7" s="131"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="74"/>
       <c r="F7" s="108"/>
       <c r="G7" s="65"/>
@@ -20728,7 +20826,7 @@
     <row r="8" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A8" s="117"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="131"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="74"/>
       <c r="F8" s="108"/>
       <c r="G8" s="65"/>
@@ -20738,7 +20836,7 @@
     <row r="9" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A9" s="62"/>
       <c r="C9" s="75"/>
-      <c r="D9" s="131"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="74"/>
       <c r="F9" s="108"/>
       <c r="G9" s="65"/>
@@ -20756,7 +20854,7 @@
       <c r="C11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -20783,10 +20881,10 @@
         <v>41648</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="134">
+      <c r="D12" s="133">
         <v>528.6</v>
       </c>
       <c r="E12" s="40">
@@ -20809,10 +20907,10 @@
         <v>41648</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="137">
+      <c r="D13" s="136">
         <v>20</v>
       </c>
       <c r="E13" s="11">
@@ -20835,10 +20933,10 @@
         <v>41648</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="137">
+      <c r="D14" s="136">
         <v>10</v>
       </c>
       <c r="E14" s="11">
@@ -20864,7 +20962,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="137"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="11"/>
       <c r="F15" s="113"/>
       <c r="G15" s="11">
@@ -20886,10 +20984,10 @@
         <v>41648</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="137">
+      <c r="D16" s="136">
         <v>3</v>
       </c>
       <c r="E16" s="11">
@@ -20912,10 +21010,10 @@
         <v>41687</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="137">
+      <c r="D17" s="136">
         <v>50</v>
       </c>
       <c r="E17" s="11">
@@ -20941,7 +21039,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="137"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="11"/>
       <c r="F18" s="113"/>
       <c r="G18" s="11">
@@ -20962,10 +21060,10 @@
         <v>41772</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="137">
+      <c r="D19" s="136">
         <f>353+300+231+93.6</f>
         <v>977.6</v>
       </c>
@@ -20991,10 +21089,10 @@
         <v>41772</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="137">
+      <c r="D20" s="136">
         <f>5+2</f>
         <v>7</v>
       </c>
@@ -21018,10 +21116,10 @@
         <v>41772</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="137">
+      <c r="D21" s="136">
         <v>10</v>
       </c>
       <c r="E21" s="11">
@@ -21044,10 +21142,10 @@
         <v>41772</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="137">
+      <c r="D22" s="136">
         <v>7</v>
       </c>
       <c r="E22" s="11">
@@ -21070,10 +21168,10 @@
         <v>41828</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="137">
+      <c r="D23" s="136">
         <v>50</v>
       </c>
       <c r="E23" s="11">
@@ -21096,10 +21194,10 @@
         <v>41835</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="137">
+      <c r="D24" s="136">
         <v>50</v>
       </c>
       <c r="E24" s="11">
@@ -21125,7 +21223,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="137"/>
+      <c r="D25" s="136"/>
       <c r="E25" s="11"/>
       <c r="F25" s="113"/>
       <c r="G25" s="11">
@@ -21146,10 +21244,10 @@
         <v>41849</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="137">
+      <c r="D26" s="136">
         <v>30</v>
       </c>
       <c r="E26" s="11">
@@ -21172,10 +21270,10 @@
         <v>41860</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="137">
+      <c r="D27" s="136">
         <v>30</v>
       </c>
       <c r="E27" s="11">
@@ -21198,10 +21296,10 @@
         <v>41888</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="137">
+      <c r="D28" s="136">
         <v>53.3</v>
       </c>
       <c r="E28" s="11">
@@ -21224,10 +21322,10 @@
         <v>41904</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="137">
+      <c r="D29" s="136">
         <v>40</v>
       </c>
       <c r="E29" s="11">
@@ -21250,10 +21348,10 @@
         <v>41928</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="137">
+      <c r="D30" s="136">
         <v>8</v>
       </c>
       <c r="E30" s="11">
@@ -21276,10 +21374,10 @@
         <v>41928</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="137">
+      <c r="D31" s="136">
         <v>10</v>
       </c>
       <c r="E31" s="11">
@@ -21302,10 +21400,10 @@
         <v>41928</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="137">
+      <c r="D32" s="136">
         <v>10</v>
       </c>
       <c r="E32" s="11">
@@ -21328,10 +21426,10 @@
         <v>41928</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="137">
+      <c r="D33" s="136">
         <v>77.5</v>
       </c>
       <c r="E33" s="11">
@@ -21354,10 +21452,10 @@
         <v>41928</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="137">
+      <c r="D34" s="136">
         <v>2.5</v>
       </c>
       <c r="E34" s="11">
@@ -21380,10 +21478,10 @@
         <v>41949</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="137">
+      <c r="D35" s="136">
         <v>99.5</v>
       </c>
       <c r="E35" s="11">
@@ -21406,10 +21504,10 @@
         <v>41949</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="137">
+      <c r="D36" s="136">
         <v>100</v>
       </c>
       <c r="E36" s="11">
@@ -21432,10 +21530,10 @@
         <v>41950</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="137">
+      <c r="D37" s="136">
         <v>422.8</v>
       </c>
       <c r="E37" s="11">
@@ -21458,10 +21556,10 @@
         <v>41956</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="137">
+      <c r="D38" s="136">
         <v>66.8</v>
       </c>
       <c r="E38" s="11">
@@ -21484,10 +21582,10 @@
         <v>41957</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="137">
+      <c r="D39" s="136">
         <v>100</v>
       </c>
       <c r="E39" s="11">
@@ -21510,10 +21608,10 @@
         <v>41957</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="137">
+      <c r="D40" s="136">
         <v>50</v>
       </c>
       <c r="E40" s="11">
@@ -21536,10 +21634,10 @@
         <v>41992</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="137">
+      <c r="D41" s="136">
         <v>546.9</v>
       </c>
       <c r="E41" s="11">
@@ -21562,10 +21660,10 @@
         <v>41995</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="137">
+      <c r="D42" s="136">
         <v>50</v>
       </c>
       <c r="E42" s="11">
@@ -21583,15 +21681,15 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="121">
+    <row r="43" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="120">
         <v>42033</v>
       </c>
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="136"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="32"/>
       <c r="F43" s="114"/>
       <c r="G43" s="11">
@@ -21613,10 +21711,10 @@
         <v>42015</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="137">
+      <c r="D44" s="136">
         <v>110.3</v>
       </c>
       <c r="E44" s="11">
@@ -21637,10 +21735,10 @@
     <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="137">
+      <c r="D45" s="136">
         <v>3</v>
       </c>
       <c r="E45" s="11">
@@ -21663,10 +21761,10 @@
         <v>42022</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="137">
+      <c r="D46" s="136">
         <v>10</v>
       </c>
       <c r="E46" s="11">
@@ -21689,10 +21787,10 @@
         <v>42037</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="137">
+      <c r="D47" s="136">
         <v>696</v>
       </c>
       <c r="E47" s="11">
@@ -21713,10 +21811,10 @@
     <row r="48" spans="1:10" ht="21" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="137">
+      <c r="D48" s="136">
         <v>5</v>
       </c>
       <c r="E48" s="11">
@@ -21737,10 +21835,10 @@
     <row r="49" spans="1:10" ht="21" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="137">
+      <c r="D49" s="136">
         <v>1</v>
       </c>
       <c r="E49" s="11">
@@ -21763,10 +21861,10 @@
         <v>42049</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="137">
+      <c r="D50" s="136">
         <v>50.1</v>
       </c>
       <c r="E50" s="11">
@@ -21789,10 +21887,10 @@
         <v>42081</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="137">
+      <c r="D51" s="136">
         <v>100</v>
       </c>
       <c r="E51" s="11">
@@ -21815,10 +21913,10 @@
         <v>42082</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="137">
+      <c r="D52" s="136">
         <v>203.5</v>
       </c>
       <c r="E52" s="11">
@@ -21841,10 +21939,10 @@
         <v>42154</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="137">
+      <c r="D53" s="136">
         <v>196</v>
       </c>
       <c r="E53" s="11">
@@ -21865,10 +21963,10 @@
     <row r="54" spans="1:10" ht="21" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="137">
+      <c r="D54" s="136">
         <v>53</v>
       </c>
       <c r="E54" s="11">
@@ -21886,15 +21984,15 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" s="123" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="121">
+    <row r="55" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="120">
         <v>42184</v>
       </c>
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="136"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="32"/>
       <c r="F55" s="114"/>
       <c r="G55" s="11">
@@ -21914,7 +22012,7 @@
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="137"/>
+      <c r="D56" s="136"/>
       <c r="E56" s="11"/>
       <c r="F56" s="113"/>
       <c r="G56" s="11">
@@ -21932,7 +22030,7 @@
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="137"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="11"/>
       <c r="F57" s="113"/>
       <c r="G57" s="11">
@@ -21950,7 +22048,7 @@
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="137"/>
+      <c r="D58" s="136"/>
       <c r="E58" s="11"/>
       <c r="F58" s="113"/>
       <c r="G58" s="11">
@@ -21968,7 +22066,7 @@
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="137"/>
+      <c r="D59" s="136"/>
       <c r="E59" s="11"/>
       <c r="F59" s="113"/>
       <c r="G59" s="11">
@@ -21986,7 +22084,7 @@
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="137"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="11"/>
       <c r="F60" s="113"/>
       <c r="G60" s="11">
@@ -22001,14 +22099,14 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="177"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
       <c r="G61" s="53">
         <f>SUM(G12:G60)</f>
         <v>283391400</v>
@@ -22028,11 +22126,11 @@
       <c r="B63" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="169">
+      <c r="E63" s="168">
         <f>I61</f>
         <v>46833400</v>
       </c>
-      <c r="F63" s="169"/>
+      <c r="F63" s="168"/>
       <c r="G63" s="55" t="s">
         <v>43</v>
       </c>
@@ -22122,11 +22220,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
@@ -22143,10 +22241,10 @@
       <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="176"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="57" t="s">
         <v>46</v>
       </c>
@@ -22161,31 +22259,31 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="65"/>
@@ -22197,7 +22295,7 @@
     </row>
     <row r="8" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -22209,10 +22307,10 @@
     </row>
     <row r="9" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>245</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>246</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -22254,43 +22352,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="156">
+    <row r="12" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A12" s="155">
         <v>41136</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="156" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="158">
+      <c r="D12" s="157">
         <v>2500</v>
       </c>
-      <c r="E12" s="159">
+      <c r="E12" s="158">
         <v>14000</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159">
+      <c r="F12" s="157"/>
+      <c r="G12" s="158">
         <f t="shared" ref="G12:G18" si="0">IF(B12&lt;&gt;"",ROUND(D12*(E12+F12),-3),0)</f>
         <v>35000000</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159">
+      <c r="H12" s="158"/>
+      <c r="I12" s="158">
         <f>IF(B12&lt;&gt;"",G12-H12,0)</f>
         <v>35000000</v>
       </c>
-      <c r="J12" s="159"/>
-    </row>
-    <row r="13" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J12" s="158"/>
+    </row>
+    <row r="13" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="12">
         <v>41270</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="14">
         <v>600</v>
@@ -22299,7 +22397,7 @@
         <v>22500</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="159">
+      <c r="G13" s="158">
         <f t="shared" si="0"/>
         <v>13500000</v>
       </c>
@@ -22310,13 +22408,13 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="14">
         <v>622</v>
@@ -22325,7 +22423,7 @@
       <c r="F14" s="14">
         <v>2250.9</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="158">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
@@ -22336,18 +22434,18 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="12">
         <v>41228</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="159">
+      <c r="G15" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22360,15 +22458,15 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="12">
         <v>41307</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="11">
         <v>500</v>
@@ -22377,7 +22475,7 @@
         <v>7000</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="159">
+      <c r="G16" s="158">
         <f t="shared" si="0"/>
         <v>3500000</v>
       </c>
@@ -22388,15 +22486,15 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="12">
         <v>41332</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="11">
         <v>630</v>
@@ -22405,7 +22503,7 @@
         <v>7000</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="159">
+      <c r="G17" s="158">
         <f t="shared" si="0"/>
         <v>4410000</v>
       </c>
@@ -22416,16 +22514,16 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="159">
+      <c r="G18" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22439,27 +22537,27 @@
       </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="183"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
-    </row>
-    <row r="20" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A19" s="182"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
+    </row>
+    <row r="20" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="12">
         <v>41430</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D20" s="11">
         <v>2500</v>
@@ -22471,7 +22569,7 @@
         <f>E20*10%</f>
         <v>1400</v>
       </c>
-      <c r="G20" s="159">
+      <c r="G20" s="158">
         <f t="shared" ref="G20:G33" si="2">IF(B20&lt;&gt;"",ROUND(D20*(E20+F20),-3),0)</f>
         <v>38500000</v>
       </c>
@@ -22481,21 +22579,21 @@
         <v>38500000</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="162" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A21" s="121">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A21" s="120">
         <v>41472</v>
       </c>
-      <c r="B21" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="122"/>
+      <c r="B21" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="121"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="161">
+      <c r="G21" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22507,17 +22605,17 @@
         <f t="shared" ref="I21:I33" si="3">IF(B21&lt;&gt;"",I20+G21-H21,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="121"/>
-    </row>
-    <row r="22" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J21" s="120"/>
+    </row>
+    <row r="22" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="12">
         <v>41459</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D22" s="11">
         <v>2500</v>
@@ -22529,7 +22627,7 @@
         <f>E22*10%</f>
         <v>1400</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="158">
         <f t="shared" si="2"/>
         <v>38500000</v>
       </c>
@@ -22539,21 +22637,21 @@
         <v>38500000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="162" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="121">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="120">
         <v>41522</v>
       </c>
-      <c r="B23" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="122"/>
+      <c r="B23" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="121"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="161">
+      <c r="G23" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22565,17 +22663,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="121"/>
-    </row>
-    <row r="24" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J23" s="120"/>
+    </row>
+    <row r="24" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="12">
         <v>41846</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D24" s="11">
         <v>2500</v>
@@ -22587,7 +22685,7 @@
         <f>E24*10%</f>
         <v>1400</v>
       </c>
-      <c r="G24" s="159">
+      <c r="G24" s="158">
         <f t="shared" si="2"/>
         <v>38500000</v>
       </c>
@@ -22597,21 +22695,21 @@
         <v>38500000</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="162" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A25" s="121">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A25" s="120">
         <v>41893</v>
       </c>
-      <c r="B25" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="122"/>
+      <c r="B25" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="121"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="161">
+      <c r="G25" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22623,15 +22721,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J25" s="121"/>
-    </row>
-    <row r="26" spans="1:10" s="160" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J25" s="120"/>
+    </row>
+    <row r="26" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D26" s="11">
         <v>2500</v>
@@ -22643,7 +22741,7 @@
         <f>E26*10%</f>
         <v>1400</v>
       </c>
-      <c r="G26" s="159">
+      <c r="G26" s="158">
         <f t="shared" si="2"/>
         <v>38500000</v>
       </c>
@@ -22653,21 +22751,21 @@
         <v>38500000</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="162" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A27" s="121">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A27" s="120">
         <v>41929</v>
       </c>
-      <c r="B27" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="122"/>
+      <c r="B27" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="121"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="161">
+      <c r="G27" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22679,17 +22777,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="121"/>
-    </row>
-    <row r="28" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+      <c r="J27" s="120"/>
+    </row>
+    <row r="28" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="12">
         <v>41963</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D28" s="11">
         <v>2500</v>
@@ -22701,7 +22799,7 @@
         <f>E28*10%</f>
         <v>1400</v>
       </c>
-      <c r="G28" s="159">
+      <c r="G28" s="158">
         <f t="shared" si="2"/>
         <v>38500000</v>
       </c>
@@ -22711,21 +22809,21 @@
         <v>38500000</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="162" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A29" s="121">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A29" s="120">
         <v>41997</v>
       </c>
-      <c r="B29" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="122"/>
+      <c r="B29" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="121"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="161">
+      <c r="G29" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22737,17 +22835,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J29" s="121"/>
-    </row>
-    <row r="30" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+      <c r="J29" s="120"/>
+    </row>
+    <row r="30" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="12">
         <v>42039</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="11">
         <v>1000</v>
@@ -22756,7 +22854,7 @@
         <v>9500</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="159">
+      <c r="G30" s="158">
         <f t="shared" si="2"/>
         <v>9500000</v>
       </c>
@@ -22767,13 +22865,13 @@
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D31" s="11">
         <v>20500</v>
@@ -22785,7 +22883,7 @@
         <f>E31*10%</f>
         <v>38</v>
       </c>
-      <c r="G31" s="159">
+      <c r="G31" s="158">
         <f t="shared" si="2"/>
         <v>8569000</v>
       </c>
@@ -22796,18 +22894,18 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="121">
+    <row r="32" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A32" s="120">
         <v>42049</v>
       </c>
-      <c r="B32" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="122"/>
+      <c r="B32" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="121"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="161">
+      <c r="G32" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22821,12 +22919,12 @@
       </c>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="33" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="12">
         <v>42094</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="11">
@@ -22836,7 +22934,7 @@
         <v>350</v>
       </c>
       <c r="F33" s="14"/>
-      <c r="G33" s="159">
+      <c r="G33" s="158">
         <f t="shared" si="2"/>
         <v>2450000</v>
       </c>
@@ -22847,18 +22945,18 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A34" s="121">
+    <row r="34" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A34" s="120">
         <v>42130</v>
       </c>
-      <c r="B34" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="122"/>
+      <c r="B34" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="121"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="161">
+      <c r="G34" s="160">
         <f t="shared" ref="G34:G39" si="4">IF(B34&lt;&gt;"",ROUND(D34*(E34+F34),-3),0)</f>
         <v>0</v>
       </c>
@@ -22872,14 +22970,14 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="35" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="159">
+      <c r="G35" s="158">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22890,14 +22988,14 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="36" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="159">
+      <c r="G36" s="158">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22908,14 +23006,14 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="37" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="159">
+      <c r="G37" s="158">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22926,14 +23024,14 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="38" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="159">
+      <c r="G38" s="158">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22944,14 +23042,14 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="160" customFormat="1" ht="18.75" customHeight="1">
+    <row r="39" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="159">
+      <c r="G39" s="158">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22963,14 +23061,14 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
       <c r="G40" s="53">
         <f>SUM(G12:G39)</f>
         <v>270829000</v>
@@ -22990,11 +23088,11 @@
       <c r="B42" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="169">
+      <c r="E42" s="168">
         <f>I40</f>
         <v>0</v>
       </c>
-      <c r="F42" s="169"/>
+      <c r="F42" s="168"/>
       <c r="G42" s="55" t="s">
         <v>43</v>
       </c>
@@ -23011,7 +23109,7 @@
     <row r="44" spans="1:10" ht="21" customHeight="1"/>
     <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>44</v>
@@ -23023,7 +23121,7 @@
       <c r="B47" s="3"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="163"/>
+      <c r="F47" s="162"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -23033,7 +23131,7 @@
       <c r="B48" s="3"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="163"/>
+      <c r="F48" s="162"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -23043,7 +23141,7 @@
       <c r="B49" s="3"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="163"/>
+      <c r="F49" s="162"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -23053,7 +23151,7 @@
       <c r="B50" s="3"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="163"/>
+      <c r="F50" s="162"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -23063,7 +23161,7 @@
       <c r="B51" s="3"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="163"/>
+      <c r="F51" s="162"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -23073,7 +23171,7 @@
       <c r="B52" s="3"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="163"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -23083,7 +23181,7 @@
       <c r="B53" s="3"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="163"/>
+      <c r="F53" s="162"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -23093,7 +23191,7 @@
       <c r="B54" s="3"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="163"/>
+      <c r="F54" s="162"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -23103,7 +23201,7 @@
       <c r="B55" s="3"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="163"/>
+      <c r="F55" s="162"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -23113,7 +23211,7 @@
       <c r="B56" s="3"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="163"/>
+      <c r="F56" s="162"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -23123,7 +23221,7 @@
       <c r="B57" s="3"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="163"/>
+      <c r="F57" s="162"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -23133,7 +23231,7 @@
       <c r="B58" s="3"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="163"/>
+      <c r="F58" s="162"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -23143,7 +23241,7 @@
       <c r="B59" s="3"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="163"/>
+      <c r="F59" s="162"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -23153,7 +23251,7 @@
       <c r="B60" s="3"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="163"/>
+      <c r="F60" s="162"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
